--- a/medicine/Psychotrope/Dampfbierbrauerei_Essen-Borbeck/Dampfbierbrauerei_Essen-Borbeck.xlsx
+++ b/medicine/Psychotrope/Dampfbierbrauerei_Essen-Borbeck/Dampfbierbrauerei_Essen-Borbeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Dampfbierbrauerei Essen-Borbeck est une brasserie à Essen, dans le Land de Rhénanie-du-Nord-Westphalie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée fin 1895 sous le nom de Schlossbrauerei Marx &amp; Co., la première machine à vapeur est installée peu après la construction de la brasserie, de la cave de stockage et de la tour de malt à Borbeck-Mitte. En 1903, la brasserie est rebaptisée Borbecker Brauereigesellschaft mit beschränkter Haftung, Borbeck (Rheinland). Deux ans plus tard, une nouvelle brasserie et de nouveaux bâtiments de cave sont construits et une machine à vapeur plus puissante est achetée. En 1908, le Dampf-Bierbrauerei produit sous le nom de Rheinisch-Westfälische Brauerei-Aktiengesellschaft Essen, avant la fusion de l'Essener Bürger-Bräu Aktiengesellschaft avec la Kronen-Brauerei AG Essen-Borbeck en 1928.
 De nombreuses années plus tard, à partir de 1982, une rénovation minutieuse de l'installation commence selon d'anciens plans. Les anciennes brasseries sont réparées et le restaurant moderne est intégrée dans les anciennes caves de stockage. Le Biergarten avec le Bierpalast ouvre en 1984.
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie propose sa dampfbier légère avec une teneur en alcool de 4,8%, la Borbecker Zwickelbier naturellement trouble avec 5,0% et la Salonbier brune avec 5,1%. Selon la saison, il y a la Borbecker Fastenbier au malt noir après le carnaval, la Borbeck Maibock un peu plus tard dans l'année, la Borbecker Erntedankbier se fait en automne et enfin la Winterbock sombre à 7% d'alcool.
 </t>
